--- a/Mars Profile Part1_User story1.xlsx
+++ b/Mars Profile Part1_User story1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Prasanna\MarsAdvancedTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Prasanna\MarsAdvanceTask1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEEB182-A14A-4625-8F9E-539BEAA3DE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C346F696-197A-4844-BB98-E23AF590CF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOC,Availability,Hours, Earn Ta" sheetId="2" r:id="rId1"/>
@@ -407,10 +407,6 @@
 Skill and experience level"</t>
   </si>
   <si>
-    <t>User should be able to view the error message as  "This language is already exist in your language list" and 
-also not viewed in the list.</t>
-  </si>
-  <si>
     <t>User should be able to view the error message as " "This skill is already exist in your skill list"" and 
 also not viewed in the list.</t>
   </si>
@@ -537,6 +533,9 @@
 2. Enter a valid description within the maximum character limit (600 characters).
 3. Verify that the first character must be an alphabet character or a number.
 4. Verify that the description field accept some special characters are ?,  .,  : and ,</t>
+  </si>
+  <si>
+    <t>User should be able to view the error message as  "This language is already exist in your language list" and also not viewed in the list.</t>
   </si>
 </sst>
 </file>
@@ -798,48 +797,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -858,55 +815,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -924,12 +841,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -951,9 +862,97 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1189,176 +1188,176 @@
     <col min="10" max="10" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="39" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:26" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="17"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
     </row>
     <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="17"/>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:26" s="32" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+    </row>
+    <row r="6" spans="1:26" s="18" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="32" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:26" s="18" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="32" t="s">
+      <c r="A120" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B120" s="32" t="s">
+      <c r="B120" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D120" s="33" t="s">
+      <c r="D120" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E120" s="31" t="s">
+      <c r="E120" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J120" t="s">
@@ -1381,8 +1380,8 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1398,65 +1397,65 @@
     <col min="10" max="10" width="53.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="39" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:26" s="25" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" ht="74.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="61" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -1493,12 +1492,12 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="25" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="8" t="s">
         <v>61</v>
       </c>
@@ -1530,13 +1529,13 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="50"/>
+    <row r="4" spans="1:26" ht="25" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>32</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>11</v>
@@ -1571,61 +1570,61 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="67" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="47"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="48"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="1:26" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="29" t="s">
         <v>76</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -1639,12 +1638,12 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="10" t="s">
         <v>74</v>
       </c>
@@ -1662,16 +1661,16 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="54" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -1691,16 +1690,16 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="42" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="31" t="s">
         <v>79</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -1714,16 +1713,16 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="65.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="42" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="34" t="s">
         <v>77</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -1737,16 +1736,16 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="42" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="32" t="s">
         <v>65</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -1763,7 +1762,7 @@
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1788,26 +1787,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="66" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
+    <row r="15" spans="1:26" s="36" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
       <c r="D15" s="14"/>
-      <c r="F15" s="68"/>
+      <c r="F15" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1837,72 +1836,72 @@
     <col min="10" max="10" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="39" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:26" s="25" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" ht="74.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="61" t="s">
         <v>90</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>99</v>
@@ -1932,12 +1931,12 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="25" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="8" t="s">
         <v>61</v>
       </c>
@@ -1970,12 +1969,12 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>11</v>
@@ -2010,17 +2009,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>102</v>
+      </c>
+      <c r="D5" s="62"/>
       <c r="E5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="57" t="s">
-        <v>110</v>
+      <c r="F5" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>93</v>
@@ -2033,12 +2032,12 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>103</v>
+      </c>
+      <c r="D6" s="62"/>
       <c r="E6" s="10" t="s">
         <v>74</v>
       </c>
@@ -2046,7 +2045,7 @@
         <v>94</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>11</v>
@@ -2056,26 +2055,26 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>95</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>73</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
@@ -2085,17 +2084,17 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="23"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="48"/>
       <c r="E8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="59" t="s">
-        <v>115</v>
+      <c r="F8" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>96</v>
@@ -2108,17 +2107,17 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="65.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="23"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="48"/>
       <c r="E9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>116</v>
+      <c r="F9" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>97</v>
@@ -2131,20 +2130,20 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="24"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="49"/>
       <c r="E10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="32" t="s">
         <v>94</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>11</v>
@@ -2157,11 +2156,11 @@
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>24</v>
@@ -2170,10 +2169,10 @@
         <v>98</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>11</v>
@@ -2199,7 +2198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC937D42-73D9-4DFA-A917-1067BF63CD8F}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2217,134 +2216,134 @@
     <col min="10" max="10" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="39" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:26" s="25" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-    </row>
-    <row r="2" spans="1:26" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+    </row>
+    <row r="2" spans="1:26" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="E2" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+    </row>
+    <row r="3" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="70" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="C4" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>131</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-    </row>
-    <row r="3" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="C4" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2378,60 +2377,60 @@
     <col min="10" max="10" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="39" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:26" s="25" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2443,7 +2442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A41C471-CC98-4D3C-AEAB-3280ACB4B557}">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2461,53 +2460,53 @@
     <col min="10" max="10" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="39" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:26" s="25" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mars Profile Part1_User story1.xlsx
+++ b/Mars Profile Part1_User story1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Prasanna\MarsAdvanceTask1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C346F696-197A-4844-BB98-E23AF590CF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658A8714-7FB2-412F-8D6C-58E8839C06B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOC,Availability,Hours, Earn Ta" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="147">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -104,10 +104,6 @@
     <t>Verify Delete functionality in the Language module.</t>
   </si>
   <si>
-    <t>Skill = SpecFlow
-Skill Level = Beginner</t>
-  </si>
-  <si>
     <t>User enter same Skill and Skill level by clicking on Add button</t>
   </si>
   <si>
@@ -144,21 +140,6 @@
     <t xml:space="preserve">1. User enter Mars QA portal URL in the Chrome web browser.
 2. Existing user navigate to Login Mars portal.
 3. User navigate to profile Module.
-</t>
-  </si>
-  <si>
-    <t>Language = English
-Language Level = Basic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language = English
-Language Level = Basic
-Language = Hindi
-Language Level = Conversational
-Language = Japanese 
-Language Level = Native/Bilingual
-Language = $@#nch
-Language Level =Fluent
 </t>
   </si>
   <si>
@@ -340,10 +321,6 @@
   <si>
     <t>User should be able to view the error message as "Please enter 
 language and level" and also not viewed in the list.</t>
-  </si>
-  <si>
-    <t>User should be able to view the tooltip message as
- "This language is already exist in your language list"  and also not viewed in the list.</t>
   </si>
   <si>
     <t>User should be able to view the error message as "Please enter 
@@ -374,10 +351,6 @@
     <t>TC_003 Verify user is able to create a Skill with duplicate data.</t>
   </si>
   <si>
-    <t>User should be able to view Skill in the list and also message as
- "@$#1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789 has been added to your Skills" and also viewed in the list.</t>
-  </si>
-  <si>
     <t>Skill = @1234</t>
   </si>
   <si>
@@ -388,14 +361,6 @@
 5.User click on Edit icon to edit the relevant existing record.</t>
   </si>
   <si>
-    <t>User should be able to view the tooltip message as
- "This Skill is already exist in your Skill list"  and also not viewed in the list.</t>
-  </si>
-  <si>
-    <t>User should be able to view Skill in the list and also message as
- "@$#1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789 has been updated to your Skills" also viewed in the list.</t>
-  </si>
-  <si>
     <t>User Click on the delete icon to delete the required existing Skill  from the
  list.</t>
   </si>
@@ -403,14 +368,6 @@
     <t>User should be able to view Skill in the list and also message as "SpecFlow has been added to your Skills"</t>
   </si>
   <si>
-    <t>User should be able to view the error message as "Please enter 
-Skill and experience level"</t>
-  </si>
-  <si>
-    <t>User should be able to view the error message as " "This skill is already exist in your skill list"" and 
-also not viewed in the list.</t>
-  </si>
-  <si>
     <t>TC_004 Verify user is able to add a new Skill with invalid input.</t>
   </si>
   <si>
@@ -430,27 +387,11 @@
   </si>
   <si>
     <t>TC_010 Verify user is able to delete the existing record from the Skill list</t>
-  </si>
-  <si>
-    <t>Skill = @$#1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789
-Skill  level = Beginner</t>
-  </si>
-  <si>
-    <t>User should be able to view the error message as "Please enter 
-Skill and experience level" and also not viewed in the list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skill = SpecFlow
-Skill Level = Beginner
-</t>
   </si>
   <si>
     <t xml:space="preserve">SpecFlow to Cucumber
 Beginner to Intermediate
 </t>
-  </si>
-  <si>
-    <t>User should be able to update existing record in the Skill list and also message as "Cucumber has been updated to your Skills" also viewed in the list.</t>
   </si>
   <si>
     <t xml:space="preserve">SpecFlow to Cucumber
@@ -465,10 +406,6 @@
 90123456789</t>
   </si>
   <si>
-    <t>User should be able to view the error message as "Please enter 
-Skill and experience level"  and also not viewed in the list.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cucumber | Intermediate
 </t>
   </si>
@@ -536,6 +473,119 @@
   </si>
   <si>
     <t>User should be able to view the error message as  "This language is already exist in your language list" and also not viewed in the list.</t>
+  </si>
+  <si>
+    <t>User should be able to view the tooltip message as
+ "This language is already added to your language list."  and also not viewed in the list.</t>
+  </si>
+  <si>
+    <t>TS_004</t>
+  </si>
+  <si>
+    <t>Verify Cancel functionality in the Language module.</t>
+  </si>
+  <si>
+    <t>TC_012 Verify user able to Cancel the language</t>
+  </si>
+  <si>
+    <t>1. Click on "Add New" Button
+2. Enter the "Language "
+3. Select the " Language Level"
+4. Click on "Cancel" Button</t>
+  </si>
+  <si>
+    <t>User should be able to Cancel the Language and user should not be able to view the Cancel Language</t>
+  </si>
+  <si>
+    <t>TC_013 Verify user able to Cancel the Edit language</t>
+  </si>
+  <si>
+    <t>1. Click on "Edit" Button
+2. Edit the Exist Data
+3. Click on "Cancel" Button</t>
+  </si>
+  <si>
+    <t>User should be able to Cancel  the Edit Language and that should not be displayed</t>
+  </si>
+  <si>
+    <t>Verify Cancel functionality in the Skill module.</t>
+  </si>
+  <si>
+    <t>TC_012 Verify user able to Cancel the Skill</t>
+  </si>
+  <si>
+    <t>1. Click on "Add New" Button
+2. Enter the "Skill "
+3. Select the " Skill Level"
+4. Click on "Cancel" Button</t>
+  </si>
+  <si>
+    <t>User should be able to Cancel the Skill and user should not be able to view the Cancel Skill</t>
+  </si>
+  <si>
+    <t>TC_013 Verify user able to Cancel the Edit Skill</t>
+  </si>
+  <si>
+    <t>User should be able to Cancel  the Edit Skill and that should not be displayed</t>
+  </si>
+  <si>
+    <t>User should be able to view the error message as "This skill is already exist in your skill list." and 
+also not viewed in the list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill = SpecFlow
+Level = Beginner
+</t>
+  </si>
+  <si>
+    <t>Skill = SpecFlow
+Level = Beginner</t>
+  </si>
+  <si>
+    <t>Skill = @$#1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789
+Level = Beginner</t>
+  </si>
+  <si>
+    <t>Language = English
+Level = Basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language = English
+Level = Basic
+Language = Hindi
+Level = Conversational
+Language = Japanese 
+Level = Native/Bilingual
+Language = $@#nch
+Language Level =Fluent
+</t>
+  </si>
+  <si>
+    <t>User should be able to view the error message as "Please enter 
+skill and experience level"</t>
+  </si>
+  <si>
+    <t>User should be able to view the tooltip message as
+ "This skill is already exist in your skill list."  and also not viewed in the list.</t>
+  </si>
+  <si>
+    <t>User should be able to view Skill in the list and also message as
+ "@$#1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789 has been updated to your skills" also viewed in the list.</t>
+  </si>
+  <si>
+    <t>User should be able to view the error message as "Please enter 
+skill and experience level"  and also not viewed in the list.</t>
+  </si>
+  <si>
+    <t>User should be able to update existing record in the Skill list and also message as "Cucumber has been updated to your skills" also viewed in the list.</t>
+  </si>
+  <si>
+    <t>User should be able to view the error message as "Please enter 
+skill and experience level" and also not viewed in the list.</t>
+  </si>
+  <si>
+    <t>User should be able to view Skill in the list and also message as
+ "@$#1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789 has been added to your skills" and also viewed in the list.</t>
   </si>
 </sst>
 </file>
@@ -753,12 +803,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -843,10 +890,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -862,6 +905,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -871,15 +915,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -892,54 +981,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -953,6 +997,41 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,180 +1267,180 @@
     <col min="10" max="10" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:26" s="24" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+    </row>
+    <row r="2" spans="1:26" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+    </row>
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+    </row>
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+    </row>
+    <row r="6" spans="1:26" s="17" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="17" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-    </row>
-    <row r="2" spans="1:26" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-    </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-    </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-    </row>
-    <row r="6" spans="1:26" s="18" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="18" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="18" t="s">
+      <c r="D120" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E120" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="J120" t="s">
         <v>38</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D120" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E120" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J120" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1378,10 +1457,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1397,80 +1476,80 @@
     <col min="10" max="10" width="53.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="25" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:26" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
     </row>
     <row r="2" spans="1:26" ht="74.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="61" t="s">
+      <c r="B2" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1"/>
@@ -1492,23 +1571,23 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="25" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="7" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="1"/>
@@ -1530,25 +1609,25 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="25" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="8" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="F4" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="1"/>
@@ -1570,231 +1649,282 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="59" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="56" t="s">
+      <c r="F5" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="49"/>
+    </row>
+    <row r="7" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="50"/>
+    </row>
+    <row r="8" spans="1:26" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="67" t="s">
+      <c r="G9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="68"/>
-    </row>
-    <row r="7" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="69"/>
-    </row>
-    <row r="8" spans="1:26" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="29" t="s">
+    <row r="10" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="G11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="11" t="s">
+    <row r="12" spans="1:26" ht="65.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="67" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="D14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="8" t="s">
+    <row r="15" spans="1:26" s="35" customFormat="1" ht="50" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="76"/>
+      <c r="G15" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="73" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="8" t="s">
+    <row r="16" spans="1:26" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="78"/>
+      <c r="G16" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="73" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="65.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="67" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="36" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="D15" s="14"/>
-      <c r="F15" s="38"/>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="C17" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="E5:E7"/>
@@ -1802,11 +1932,6 @@
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1816,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35E86FF-D936-49BE-A5D7-2574E29644DD}">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1836,80 +1961,80 @@
     <col min="10" max="10" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="25" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:26" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
+      <c r="I1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
     </row>
     <row r="2" spans="1:26" ht="74.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="B2" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1"/>
@@ -1931,23 +2056,23 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="25" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="1"/>
@@ -1969,25 +2094,25 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="F4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="1"/>
@@ -2009,180 +2134,228 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="65.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="G9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="11" t="s">
+    <row r="10" spans="1:26" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="67" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="G11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="8" t="s">
+    <row r="12" spans="1:26" s="35" customFormat="1" ht="50" x14ac:dyDescent="0.25">
+      <c r="A12" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="76"/>
+      <c r="G12" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="73" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="8" t="s">
+    <row r="13" spans="1:26" s="41" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="78"/>
+      <c r="G13" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="73" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="65.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="67" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="D7:D10"/>
@@ -2216,134 +2389,134 @@
     <col min="10" max="10" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="25" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:26" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-    </row>
-    <row r="2" spans="1:26" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="I1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+    </row>
+    <row r="2" spans="1:26" s="40" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
+      <c r="B2" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
     </row>
     <row r="3" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>41</v>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="C4" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>131</v>
+      <c r="C4" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2377,60 +2550,60 @@
     <col min="10" max="10" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="25" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:26" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
+      <c r="I1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2460,53 +2633,53 @@
     <col min="10" max="10" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="25" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:26" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
+      <c r="I1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
